--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>5.484291218867916</v>
+        <v>7071.74531360843</v>
       </c>
       <c r="O2" t="n">
-        <v>7.681263872100533</v>
+        <v>6993.890772562212</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>14.6305776429075</v>
+        <v>9024.733389685653</v>
       </c>
       <c r="O2" t="n">
-        <v>15.62149182100758</v>
+        <v>9724.258249348202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>13034.3101291405</v>
       </c>
       <c r="O2" t="n">
-        <v>29.72299948948574</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>13151.8694977663</v>
       </c>
       <c r="O2" t="n">
-        <v>30.82124801002381</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>13601.08685191924</v>
       </c>
       <c r="O2" t="n">
-        <v>31.77279297669219</v>
+        <v>14937.1305943757</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>13601.08685191924</v>
       </c>
       <c r="O2" t="n">
-        <v>31.77279297669219</v>
+        <v>14937.1305943757</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.264565367303</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>290.0628494009878</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13080.23108139243</v>
+        <v>29049.07128553874</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19982.06298108001</v>
+        <v>14945.10834652955</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50998.86069102</v>
       </c>
       <c r="M2" t="n">
-        <v>6222.861006714003</v>
+        <v>11228.70813999</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.161100737429</v>
+        <v>7234.0658054822</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.846478063782</v>
+        <v>6703.624349245061</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.637727823709</v>
+        <v>219.6160489230463</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>3803.736742006062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41703.13848651287</v>
+        <v>45497.55843345862</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.70082855981</v>
+        <v>31114.43531462794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333456</v>
+        <v>60434.98124678315</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.53180181396</v>
+        <v>17372.009741075</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.92418659757</v>
+        <v>9195.867044489814</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.85219940326</v>
+        <v>7876.358949184817</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>2152.642131479708</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>5727.815297363306</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>57498.34554108262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>49824.6994397517</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>60434.98124678315</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>23386.44280563801</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13671.2814398324</v>
       </c>
       <c r="O2" t="n">
-        <v>23839.70173706436</v>
+        <v>12393.80935914757</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>2152.642131479708</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>5727.815297363306</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>57498.34554108262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>49824.6994397517</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>60434.98124678315</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>23386.44280563801</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13671.2814398324</v>
       </c>
       <c r="O2" t="n">
-        <v>23839.70173706436</v>
+        <v>12393.80935914757</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>2152.642131479708</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>5727.815297363306</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>57498.34554108262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>49824.6994397517</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>60434.98124678315</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>23386.44280563801</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13671.2814398324</v>
       </c>
       <c r="O2" t="n">
-        <v>29136.49837218866</v>
+        <v>14414.6765450033</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>2152.642131479708</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>5727.815297363306</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>57498.34554108262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>49824.6994397517</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>60434.98124678315</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>23386.44280563801</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13671.2814398324</v>
       </c>
       <c r="O2" t="n">
-        <v>29136.49837218866</v>
+        <v>14414.6765450033</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290.0628494009878</v>
+        <v>277.8902526399997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29049.07128553874</v>
+        <v>29092.72506141524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14945.10834652955</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50998.86069102</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11228.70813999</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7234.0658054822</v>
+        <v>7270.39941619107</v>
       </c>
       <c r="O2" t="n">
-        <v>6703.624349245061</v>
+        <v>6890.515200515623</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219.6160489230463</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3803.736742006062</v>
+        <v>5537.639684330663</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45497.55843345862</v>
+        <v>56025.09626473462</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31114.43531462794</v>
+        <v>37060.2472718608</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60434.98124678315</v>
+        <v>73413.93799662068</v>
       </c>
       <c r="M2" t="n">
-        <v>17372.009741075</v>
+        <v>21807.55922437125</v>
       </c>
       <c r="N2" t="n">
-        <v>9195.867044489814</v>
+        <v>10913.44862569963</v>
       </c>
       <c r="O2" t="n">
-        <v>7876.358949184817</v>
+        <v>9420.955052951809</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642131479708</v>
+        <v>2266.487971660737</v>
       </c>
       <c r="B2" t="n">
-        <v>5727.815297363306</v>
+        <v>7112.344852924754</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34554108262</v>
+        <v>67064.77115738479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49824.6994397517</v>
+        <v>55915.31069905476</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60434.98124678315</v>
+        <v>73413.93799662068</v>
       </c>
       <c r="M2" t="n">
-        <v>23386.44280563801</v>
+        <v>27623.86391009025</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.2814398324</v>
+        <v>15939.31202052395</v>
       </c>
       <c r="O2" t="n">
-        <v>12393.80935914757</v>
+        <v>14199.58055466296</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642131479708</v>
+        <v>2266.487971660737</v>
       </c>
       <c r="B2" t="n">
-        <v>5727.815297363306</v>
+        <v>7112.344852924754</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34554108262</v>
+        <v>67064.77115738479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49824.6994397517</v>
+        <v>55915.31069905476</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60434.98124678315</v>
+        <v>73413.93799662068</v>
       </c>
       <c r="M2" t="n">
-        <v>23386.44280563801</v>
+        <v>27623.86391009025</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.2814398324</v>
+        <v>15939.31202052395</v>
       </c>
       <c r="O2" t="n">
-        <v>12393.80935914757</v>
+        <v>14199.58055466296</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642131479708</v>
+        <v>2266.487971660737</v>
       </c>
       <c r="B2" t="n">
-        <v>5727.815297363306</v>
+        <v>7112.344852924754</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34554108262</v>
+        <v>67064.77115738479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49824.6994397517</v>
+        <v>55915.31069905476</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60434.98124678315</v>
+        <v>73413.93799662068</v>
       </c>
       <c r="M2" t="n">
-        <v>23386.44280563801</v>
+        <v>27623.86391009025</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.2814398324</v>
+        <v>15939.31202052395</v>
       </c>
       <c r="O2" t="n">
-        <v>14414.6765450033</v>
+        <v>16475.45838331085</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642131479708</v>
+        <v>2266.487971660737</v>
       </c>
       <c r="B2" t="n">
-        <v>5727.815297363306</v>
+        <v>7112.344852924754</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34554108262</v>
+        <v>67064.77115738479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662051</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49824.6994397517</v>
+        <v>55915.31069905476</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60434.98124678315</v>
+        <v>73413.93799662068</v>
       </c>
       <c r="M2" t="n">
-        <v>23386.44280563801</v>
+        <v>27623.86391009025</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.2814398324</v>
+        <v>15939.31202052395</v>
       </c>
       <c r="O2" t="n">
-        <v>14414.6765450033</v>
+        <v>16475.45838331085</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.74531360843</v>
+        <v>7155.07579047334</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.890772562212</v>
+        <v>6980.325566461758</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9024.733389685653</v>
+        <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.258249348202</v>
+        <v>12062.16651258332</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13034.3101291405</v>
+        <v>15130.68721665935</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13151.8694977663</v>
+        <v>15235.09591287046</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.08685191924</v>
+        <v>15770.60709744437</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.1305943757</v>
+        <v>17095.62460801082</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.08685191924</v>
+        <v>15770.60709744437</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.1305943757</v>
+        <v>17095.62460801082</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.264565367303</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13080.23108139243</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19982.06298108001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6222.861006714003</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.161100737429</v>
+        <v>2483.088451418223</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.846478063782</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.637727823709</v>
+        <v>7750.60443450132</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41703.13848651287</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.70082855981</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333456</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.53180181396</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.92418659757</v>
+        <v>8657.602454901145</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.85219940326</v>
+        <v>5738.328092052153</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>27024.51331005387</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186321</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.0978802219</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12090.67843946066</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13965.1978131305</v>
       </c>
       <c r="O2" t="n">
-        <v>23839.70173706436</v>
+        <v>9236.220415824873</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>27024.51331005387</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186321</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.0978802219</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12090.67843946066</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13965.1978131305</v>
       </c>
       <c r="O2" t="n">
-        <v>23839.70173706436</v>
+        <v>9236.220415824873</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>27024.51331005387</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186321</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.0978802219</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12090.67843946066</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13965.1978131305</v>
       </c>
       <c r="O2" t="n">
-        <v>29136.49837218866</v>
+        <v>10068.77711182302</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.19550927792</v>
+        <v>27024.51331005387</v>
       </c>
       <c r="B2" t="n">
-        <v>477.8270134000006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186321</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100882.3628658029</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.0978802219</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12090.67843946066</v>
       </c>
       <c r="I2" t="n">
-        <v>97217.81848975332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>158483.8044953037</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62925.46201438468</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.60905175208</v>
+        <v>13965.1978131305</v>
       </c>
       <c r="O2" t="n">
-        <v>29136.49837218866</v>
+        <v>10068.77711182302</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.484291218867916</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>7.681263872100533</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.6305776429075</v>
+        <v>7543.193583625169</v>
       </c>
       <c r="O2" t="n">
-        <v>15.62149182100758</v>
+        <v>6257.586732772244</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>12888.04225687751</v>
       </c>
       <c r="O2" t="n">
-        <v>29.72299948948574</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>14045.89200932069</v>
       </c>
       <c r="O2" t="n">
-        <v>30.82124801002381</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>31.77279297669219</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.78726698627648</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>31.77279297669219</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2483.088451418223</v>
+        <v>2483.088451418229</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.762462679781</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8657.602454901145</v>
+        <v>8657.602454901124</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052153</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005387</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186321</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.0978802219</v>
+        <v>17293.09788022112</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.1978131305</v>
+        <v>13965.19781313025</v>
       </c>
       <c r="O2" t="n">
-        <v>9236.220415824873</v>
+        <v>9236.220415824875</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005387</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186321</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.0978802219</v>
+        <v>17293.09788022112</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.1978131305</v>
+        <v>13965.19781313025</v>
       </c>
       <c r="O2" t="n">
-        <v>9236.220415824873</v>
+        <v>9236.220415824875</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005387</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186321</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.0978802219</v>
+        <v>17293.09788022112</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.1978131305</v>
+        <v>13965.19781313025</v>
       </c>
       <c r="O2" t="n">
         <v>10068.77711182302</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005387</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186321</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.0978802219</v>
+        <v>17293.09788022112</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.1978131305</v>
+        <v>13965.19781313025</v>
       </c>
       <c r="O2" t="n">
         <v>10068.77711182302</v>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7270.39941619107</v>
+        <v>7270.399416191256</v>
       </c>
       <c r="O2" t="n">
-        <v>6890.515200515623</v>
+        <v>6890.515200515629</v>
       </c>
     </row>
   </sheetData>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56025.09626473462</v>
+        <v>56025.09626473542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37060.2472718608</v>
+        <v>37060.24727186078</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73413.93799662068</v>
+        <v>73413.93799662069</v>
       </c>
       <c r="M2" t="n">
         <v>21807.55922437125</v>
       </c>
       <c r="N2" t="n">
-        <v>10913.44862569963</v>
+        <v>10913.4486256992</v>
       </c>
       <c r="O2" t="n">
-        <v>9420.955052951809</v>
+        <v>9420.955052951816</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660737</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7112.344852924754</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67064.77115738479</v>
+        <v>67064.77115738489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55915.31069905476</v>
+        <v>55915.31069905477</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73413.93799662068</v>
+        <v>73413.93799662069</v>
       </c>
       <c r="M2" t="n">
-        <v>27623.86391009025</v>
+        <v>27623.86391009024</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052395</v>
+        <v>15939.31202052404</v>
       </c>
       <c r="O2" t="n">
         <v>14199.58055466296</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660737</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7112.344852924754</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67064.77115738479</v>
+        <v>67064.77115738489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55915.31069905476</v>
+        <v>55915.31069905477</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73413.93799662068</v>
+        <v>73413.93799662069</v>
       </c>
       <c r="M2" t="n">
-        <v>27623.86391009025</v>
+        <v>27623.86391009024</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052395</v>
+        <v>15939.31202052404</v>
       </c>
       <c r="O2" t="n">
         <v>14199.58055466296</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660737</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7112.344852924754</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67064.77115738479</v>
+        <v>67064.77115738489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55915.31069905476</v>
+        <v>55915.31069905477</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73413.93799662068</v>
+        <v>73413.93799662069</v>
       </c>
       <c r="M2" t="n">
-        <v>27623.86391009025</v>
+        <v>27623.86391009024</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052395</v>
+        <v>15939.31202052404</v>
       </c>
       <c r="O2" t="n">
         <v>16475.45838331085</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660737</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7112.344852924754</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67064.77115738479</v>
+        <v>67064.77115738489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55915.31069905476</v>
+        <v>55915.31069905477</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73413.93799662068</v>
+        <v>73413.93799662069</v>
       </c>
       <c r="M2" t="n">
-        <v>27623.86391009025</v>
+        <v>27623.86391009024</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052395</v>
+        <v>15939.31202052404</v>
       </c>
       <c r="O2" t="n">
         <v>16475.45838331085</v>

--- a/results/[11_warm_summers]_#_fix_cost.xlsx
+++ b/results/[11_warm_summers]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.07579047334</v>
+        <v>7155.075790473336</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.325566461758</v>
+        <v>6980.325566461754</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>12062.16651258332</v>
+        <v>12079.40905079305</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.68721665935</v>
+        <v>15117.91059331085</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15235.09591287046</v>
+        <v>15225.0345013318</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60709744437</v>
+        <v>15769.76205278203</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62460801082</v>
+        <v>17096.52013936021</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60709744437</v>
+        <v>15769.76205278203</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62460801082</v>
+        <v>17096.52013936021</v>
       </c>
     </row>
   </sheetData>
